--- a/biology/Zoologie/Haminoeidae/Haminoeidae.xlsx
+++ b/biology/Zoologie/Haminoeidae/Haminoeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haminoeidae sont une famille de mollusques gastéropodes de l'ordre des Cephalaspidea. Ils sont présents essentiellement dans les estuaires, et littoraux vaseux, mais aussi pour certains dans les récifs de corail.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Haminoeidae ont une coquille ovoïde mesurant de 3 à 30 mm. Ce sont des escargots parfois très colorés mais pouvant aussi prendre une coloration proche des fonds marins sur lesquels ils vivent.
 </t>
@@ -542,12 +556,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de cette famille a longtemps été controversé. Elle fut parfois nommée Atyidae ou Atydidae, elle a également été orthographiée Haminaeidae.
 De nombreux genres ont été proposés pour cette famille, mais les différentes espèces restent difficiles voire impossible à identifier à l'œil nu. Tant que l'analyse de l'anatomie interne et de l'ADN des Haminoeidae  ne sera pas mieux connu, le statuts des différents genres et espèces restera incertain.
-Liste des genres
-Selon World Register of Marine Species                               (29 novembre 2018)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Haminoeidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haminoeidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 novembre 2018) :
 genre Aliculastrum Pilsbry, 1896
 genre Atys Montfort, 1810
 genre Austrocylichna Burn, 1974
